--- a/Lanzamiento del proyecto/Bitacoras/Bitacora Lider Soporte.xlsx
+++ b/Lanzamiento del proyecto/Bitacoras/Bitacora Lider Soporte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Desktop\METODOS FORMALES\METFOR\Primera Entrega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\METFOR\METFOR\Lanzamiento del proyecto\Bitacoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>METFOR</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Definir objetivos y métricas rol de líder de soporte</t>
   </si>
   <si>
-    <t>Acta de constitución</t>
-  </si>
-  <si>
     <t>Definición general del proyecto (objetivos, alcance, metas y restricciones)</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Lanzamiento del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lanzamiento </t>
   </si>
 </sst>
 </file>
@@ -924,37 +924,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="7" width="18.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="2"/>
+    <col min="5" max="7" width="18.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -964,19 +964,19 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="11"/>
@@ -984,7 +984,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -993,17 +993,17 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="28"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -1043,7 +1043,7 @@
       <c r="I15" s="34"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="2:10" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>43133</v>
       </c>
@@ -1054,19 +1054,21 @@
         <v>0.6875</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="18">
         <v>43133</v>
       </c>
@@ -1077,23 +1079,23 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="35.4" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>43137</v>
       </c>
@@ -1104,19 +1106,21 @@
         <v>0.75</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="2:10" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B19" s="18">
         <v>43137</v>
       </c>
@@ -1127,19 +1131,21 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="2:10" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
         <v>43136</v>
       </c>
@@ -1150,19 +1156,21 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B21" s="18">
         <v>43137</v>
       </c>
@@ -1173,23 +1181,23 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="35.4" x14ac:dyDescent="0.3">
       <c r="B22" s="18">
         <v>43137</v>
       </c>
@@ -1200,23 +1208,23 @@
         <v>0.8125</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="35.4" x14ac:dyDescent="0.3">
       <c r="B23" s="18">
         <v>43137</v>
       </c>
@@ -1227,23 +1235,23 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B24" s="18">
         <v>43137</v>
       </c>
@@ -1254,21 +1262,21 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="2:10" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="35.4" x14ac:dyDescent="0.3">
       <c r="B25" s="18">
         <v>43137</v>
       </c>
@@ -1279,19 +1287,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="H25" s="21"/>
       <c r="I25" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="2:10" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B26" s="18">
         <v>43138</v>
       </c>
@@ -1302,19 +1312,21 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="H26" s="21"/>
       <c r="I26" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>43137</v>
       </c>
@@ -1325,19 +1337,21 @@
         <v>0.9375</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
         <v>43137</v>
       </c>
@@ -1348,19 +1362,21 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="H28" s="21"/>
       <c r="I28" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1371,7 +1387,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1382,7 +1398,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1393,7 +1409,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1404,7 +1420,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1415,7 +1431,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1426,7 +1442,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="12"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1437,7 +1453,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1448,7 +1464,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1459,7 +1475,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1470,7 +1486,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1481,7 +1497,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1492,7 +1508,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1503,7 +1519,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1514,7 +1530,7 @@
       <c r="I42" s="16"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1525,7 +1541,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="12"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1536,7 +1552,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="12"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1547,7 +1563,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1558,7 +1574,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="12"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1569,7 +1585,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="12"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1580,7 +1596,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="12"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -1591,7 +1607,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1602,7 +1618,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="12"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1613,7 +1629,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="12"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1624,7 +1640,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="12"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -1635,7 +1651,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1646,7 +1662,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="12"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -1657,7 +1673,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="12"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -1668,7 +1684,7 @@
       <c r="I56" s="16"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="12"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -1679,7 +1695,7 @@
       <c r="I57" s="16"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -1690,7 +1706,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="13"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -1727,15 +1743,15 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +1761,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -1753,7 +1769,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -1761,7 +1777,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -1769,7 +1785,7 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -1777,7 +1793,7 @@
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -1785,7 +1801,7 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>18</v>
       </c>
@@ -1795,7 +1811,7 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -1803,7 +1819,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -1811,7 +1827,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -1819,7 +1835,7 @@
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -1827,7 +1843,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -1835,7 +1851,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>17</v>
       </c>
@@ -1845,7 +1861,7 @@
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -1853,7 +1869,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -1861,7 +1877,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -1869,7 +1885,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -1877,7 +1893,7 @@
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -1885,7 +1901,7 @@
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
         <v>11</v>
       </c>
@@ -1895,7 +1911,7 @@
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>5</v>
       </c>
@@ -1915,7 +1931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1923,7 +1939,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1931,7 +1947,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1939,7 +1955,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1947,7 +1963,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1955,7 +1971,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1963,7 +1979,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1971,7 +1987,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1979,7 +1995,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1987,7 +2003,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1995,7 +2011,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2003,7 +2019,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -2011,7 +2027,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2019,7 +2035,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="35" t="s">
         <v>12</v>
       </c>
@@ -2029,7 +2045,7 @@
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -2037,7 +2053,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
@@ -2045,7 +2061,7 @@
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
@@ -2053,7 +2069,7 @@
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
@@ -2061,7 +2077,7 @@
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
@@ -2069,7 +2085,7 @@
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
@@ -2077,7 +2093,7 @@
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="35" t="s">
         <v>13</v>
       </c>
@@ -2087,7 +2103,7 @@
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
@@ -2095,7 +2111,7 @@
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
@@ -2103,7 +2119,7 @@
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
@@ -2111,7 +2127,7 @@
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
@@ -2119,7 +2135,7 @@
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
@@ -2127,7 +2143,7 @@
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="35" t="s">
         <v>16</v>
       </c>
@@ -2137,7 +2153,7 @@
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
         <v>14</v>
       </c>
@@ -2151,7 +2167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2159,7 +2175,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -2167,7 +2183,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -2175,7 +2191,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -2183,7 +2199,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -2191,7 +2207,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
